--- a/data_presentations/Table_ED1.xlsx
+++ b/data_presentations/Table_ED1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JTsuji\Research_General\manuscripts\2020_04_14_Ca_Chx_allophototropha_paper\03_submission_to_Science\03_coauthor_edits\Ca-Chlorohelix-allophototropha-RCI\data_presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JTsuji\Downloads\Ca-Chlorohelix-allophototropha-RCI\data_presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C32DAA-96EC-4A79-8A77-E2E935640FFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FA4AA0-C8EE-4DFF-8AD7-BE6BCA0B2CFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_S3" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_ED1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -911,48 +911,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,7 +968,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
